--- a/Personal Budget 07072025(1).xlsx
+++ b/Personal Budget 07072025(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YongSeng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A17CC22-0051-42F3-9A5C-F708357DA13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8ED62-B669-4ADB-8075-F07481F8ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{5DA0C669-F45A-456B-BFCF-7A020D658E29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{5DA0C669-F45A-456B-BFCF-7A020D658E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Selection of expenses" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="147">
   <si>
     <t>Personal</t>
   </si>
@@ -452,16 +452,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Total month expenses</t>
-  </si>
-  <si>
-    <t>Total monthly income</t>
-  </si>
-  <si>
     <t>Monthly balance</t>
-  </si>
-  <si>
-    <t>Total balance</t>
   </si>
   <si>
     <t>Date</t>
@@ -516,9 +507,6 @@
   </si>
   <si>
     <t>Accm. Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Monthly Expenses</t>
@@ -608,7 +596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +630,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -769,6 +769,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,11 +788,6 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,13 +797,20 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -850,10 +856,7 @@
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7769,10 +7772,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E34541E-8DAB-4786-A8E6-DED94051FB2F}" name="Transactions" displayName="Transactions" ref="C8:G18" totalsRowShown="0">
   <autoFilter ref="C8:G18" xr:uid="{8E34541E-8DAB-4786-A8E6-DED94051FB2F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CCD2AF37-2882-4B26-A14B-6E2F97C729AC}" name="Date" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{64042C22-EBF1-4DD6-8993-A53786668798}" name="Income" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C8F3736E-90E4-4666-AC77-131761CB8EBF}" name="Expenses" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5822D85E-2B2B-438E-8F25-E254A0C83A8F}" name="Amount" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CCD2AF37-2882-4B26-A14B-6E2F97C729AC}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{64042C22-EBF1-4DD6-8993-A53786668798}" name="Income" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C8F3736E-90E4-4666-AC77-131761CB8EBF}" name="Expenses" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5822D85E-2B2B-438E-8F25-E254A0C83A8F}" name="Amount" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{A8BF561B-22DC-4579-864B-A5087118BEA2}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8099,7 +8102,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R305"/>
   <sheetViews>
-    <sheetView topLeftCell="C32" workbookViewId="0">
+    <sheetView topLeftCell="C39" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -8115,24 +8118,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.85" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="G2" s="11"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8194,7 +8197,7 @@
         <f>$A$4</f>
         <v>Personal</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="23" t="s">
         <v>89</v>
       </c>
       <c r="H4" s="2" t="str" cm="1">
@@ -8248,7 +8251,7 @@
         <f t="shared" ref="F5:F15" si="0">$A$4</f>
         <v>Personal</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="2" t="str">
         <v>jewelry</v>
       </c>
@@ -8277,7 +8280,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -8304,7 +8307,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -8331,7 +8334,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -8355,7 +8358,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -8379,7 +8382,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -8403,7 +8406,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -8427,7 +8430,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -8449,7 +8452,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -8473,7 +8476,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -8497,7 +8500,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -8523,7 +8526,7 @@
         <f>$A$16</f>
         <v>Education</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -8550,7 +8553,7 @@
         <f t="shared" ref="F17:F19" si="1">$A$16</f>
         <v>Education</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -8574,7 +8577,7 @@
         <f t="shared" si="1"/>
         <v>Education</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -8598,7 +8601,7 @@
         <f t="shared" si="1"/>
         <v>Education</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -8624,7 +8627,7 @@
         <f>$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -8648,7 +8651,7 @@
         <f>$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -8672,7 +8675,7 @@
         <f t="shared" ref="F22:F24" si="2">$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -8696,7 +8699,7 @@
         <f t="shared" si="2"/>
         <v>Entertainment</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="24"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -8720,7 +8723,7 @@
         <f t="shared" si="2"/>
         <v>Entertainment</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -11339,8 +11342,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11351,24 +11354,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.85" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H2" s="11"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11417,7 +11420,7 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="b">
@@ -11427,7 +11430,7 @@
         <f>$A$4</f>
         <v>Employment</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="23" t="s">
         <v>89</v>
       </c>
       <c r="I4" s="9" t="str" cm="1">
@@ -11469,7 +11472,7 @@
     </row>
     <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" t="b">
@@ -11479,7 +11482,7 @@
         <f t="shared" ref="F5:F10" si="0">$A$4</f>
         <v>Employment</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="9" t="str">
         <v>OT allowance</v>
       </c>
@@ -11500,7 +11503,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -11519,7 +11522,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -11539,7 +11542,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -11556,7 +11559,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -11573,7 +11576,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -11593,7 +11596,7 @@
         <f>$A$11</f>
         <v>Part time</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -11610,7 +11613,7 @@
         <f t="shared" ref="F12:F14" si="1">$A$11</f>
         <v>Part time</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -11627,7 +11630,7 @@
         <f t="shared" si="1"/>
         <v>Part time</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -11644,7 +11647,7 @@
         <f t="shared" si="1"/>
         <v>Part time</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -11664,7 +11667,7 @@
         <f>$A$15</f>
         <v>Side hustles</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -11681,7 +11684,7 @@
         <f t="shared" ref="F16:F18" si="2">$A$15</f>
         <v>Side hustles</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -11698,7 +11701,7 @@
         <f t="shared" si="2"/>
         <v>Side hustles</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -11715,7 +11718,7 @@
         <f t="shared" si="2"/>
         <v>Side hustles</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -11738,7 +11741,7 @@
         <f>$A$19</f>
         <v>Investment return</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -11755,7 +11758,7 @@
         <f t="shared" ref="F20:F22" si="3">$A$19</f>
         <v>Investment return</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -11772,7 +11775,7 @@
         <f t="shared" si="3"/>
         <v>Investment return</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -11789,7 +11792,7 @@
         <f t="shared" si="3"/>
         <v>Investment return</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -11809,7 +11812,7 @@
         <f>$A$23</f>
         <v>Rental income</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -11826,7 +11829,7 @@
         <f t="shared" ref="F24:F25" si="4">$A$23</f>
         <v>Rental income</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -11847,10 +11850,10 @@
     </row>
     <row r="26" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" t="b">
@@ -11880,7 +11883,7 @@
     </row>
     <row r="29" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D29" s="9"/>
       <c r="F29" t="str">
@@ -12816,9 +12819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BC4F42-78C8-408D-AB3B-2A723CC00046}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12832,22 +12835,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28">
+      <c r="A1" s="27">
         <v>2025</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D2" s="15">
         <f>SUMIFS(Transactions[Amount], Transactions[Income], "&lt;&gt;", Transactions[Date], "&gt;=" &amp; DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), Transactions[Date], "&lt;=" &amp; EOMONTH(DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), 0))</f>
@@ -12855,10 +12858,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D3" s="15">
         <f>SUMIFS(Transactions[Amount], Transactions[Expenses], "&lt;&gt;", Transactions[Date], "&gt;=" &amp; DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), Transactions[Date], "&lt;=" &amp; EOMONTH(DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), 0))</f>
@@ -12866,10 +12869,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" s="15">
         <f>$D$2-$D$3</f>
@@ -12877,23 +12880,23 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="26">
+        <v>139</v>
+      </c>
+      <c r="D5" s="20">
         <f>IFERROR($D$3/$D$2, 0)</f>
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="14">
         <f ca="1">TODAY()</f>
-        <v>45853</v>
+        <v>45856</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -12901,19 +12904,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" t="s">
         <v>136</v>
-      </c>
-      <c r="E8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -12921,10 +12924,10 @@
         <v>45849</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="15">
+      <c r="F9" s="33">
         <v>100</v>
       </c>
     </row>
@@ -12936,7 +12939,7 @@
       <c r="E10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="33">
         <v>30</v>
       </c>
     </row>
@@ -12945,25 +12948,25 @@
         <v>45814</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="15">
+      <c r="F11" s="33">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="27">
+      <c r="C12" s="21">
         <v>45814</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="33">
         <v>200</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="14">
@@ -12973,7 +12976,7 @@
       <c r="E13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="33">
         <v>188</v>
       </c>
     </row>
@@ -12981,34 +12984,34 @@
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13017,10 +13020,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F9:F18">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$D9&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$E9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13091,7 +13094,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B359DD22-A910-4EC1-8492-3C7FC2DA486F}">
           <x14:formula1>
-            <xm:f>Dashboard!$A$3:$A$14</xm:f>
+            <xm:f>Dashboard!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B1</xm:sqref>
         </x14:dataValidation>
@@ -13104,76 +13107,132 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A4C3E1-4865-4C31-9CD3-150CAF75F45D}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="H22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B3" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
         <v>0</v>
       </c>
       <c r="C3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025,6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>150</v>
+      </c>
+      <c r="H3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025,8, 1))</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="31">
+        <f>SUM(B3:M3)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <f>B3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>SUM($D$3:D3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
         <v>0</v>
       </c>
       <c r="C4" s="16">
@@ -13181,247 +13240,1417 @@
         <v>0</v>
       </c>
       <c r="D4" s="16">
-        <f>B4-C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>SUM($D$3:D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="D5" s="16">
-        <f>B5-C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>SUM($D$3:D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="E4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="D6" s="16">
-        <f>B6-C6</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>SUM($D$3:D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025,6, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="F4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="D7" s="16">
-        <f>B7-C7</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>SUM($D$3:D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
-        <v>150</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="G4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
         <v>200</v>
       </c>
-      <c r="D8" s="16">
-        <f>B8-C8</f>
-        <v>-50</v>
-      </c>
-      <c r="E8">
-        <f>SUM($D$3:D8)</f>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025,8, 1))</f>
-        <v>100</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="H4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
         <v>218</v>
       </c>
-      <c r="D9" s="16">
-        <f>B9-C9</f>
+      <c r="I4" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="16">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="31">
+        <f>SUM(B4:M4)</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="16">
+        <f>B3-B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <f>C3-C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <f>D3-D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <f>E3-E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <f>F3-F4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <f>G3-G4</f>
+        <v>-50</v>
+      </c>
+      <c r="H5" s="16">
+        <f>H3-H4</f>
         <v>-118</v>
       </c>
-      <c r="E9">
-        <f>SUM($D$3:D9)</f>
+      <c r="I5" s="16">
+        <f>I3-I4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <f>J3-J4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <f>K3-K4</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <f>L3-L4</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <f>M3-M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="31">
+        <f>SUM(B5:M5)</f>
         <v>-168</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <f>B10-C10</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>SUM($D$3:D10)</f>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="16">
+        <f>SUM($B$5:B5)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <f>SUM($B$5:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM($B$5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <f>SUM($B$5:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <f>SUM($B$5:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <f>SUM($B$5:G5)</f>
+        <v>-50</v>
+      </c>
+      <c r="H6" s="16">
+        <f>SUM($B$5:H5)</f>
         <v>-168</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <f>B11-C11</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f>SUM($D$3:D11)</f>
+      <c r="I6" s="16">
+        <f>SUM($B$5:I5)</f>
         <v>-168</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <f>B12-C12</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>SUM($D$3:D12)</f>
+      <c r="J6" s="16">
+        <f>SUM($B$5:J5)</f>
         <v>-168</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <f>B13-C13</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>SUM($D$3:D13)</f>
+      <c r="K6" s="16">
+        <f>SUM($B$5:K5)</f>
         <v>-168</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
-        <f>B14-C14</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>SUM($D$3:D14)</f>
+      <c r="L6" s="16">
+        <f>SUM($B$5:L5)</f>
         <v>-168</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="16">
-        <f>SUM(B3:B14)</f>
-        <v>250</v>
-      </c>
-      <c r="C15" s="16">
-        <f t="shared" ref="C15:D15" si="0">SUM(C3:C14)</f>
-        <v>418</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="0"/>
+      <c r="M6" s="16">
+        <f>SUM($B$5:M5)</f>
         <v>-168</v>
       </c>
-      <c r="J15" t="s">
-        <v>148</v>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="str" cm="1">
+        <f t="array" ref="A8:A17">_xlfn.LET(
+    _xlpm.CombinedList, _xlfn.VSTACK('Select of income'!$R$4:$R$40, 'Selection of expenses'!$R$4:$R$40),
+    _xlfn._xlws.FILTER(_xlpm.CombinedList, _xlpm.CombinedList&lt;&gt;"")
+)</f>
+        <v>Monthly salary</v>
+      </c>
+      <c r="B8" s="32" cm="1">
+        <f t="array" ref="B8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="32" cm="1">
+        <f t="array" ref="C8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="32" cm="1">
+        <f t="array" ref="D8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="32" cm="1">
+        <f t="array" ref="E8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="32" cm="1">
+        <f t="array" ref="F8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="32" cm="1">
+        <f t="array" ref="G8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" cm="1">
+        <f t="array" ref="H8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" cm="1">
+        <f t="array" ref="I8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="32" cm="1">
+        <f t="array" ref="J8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="32" cm="1">
+        <f t="array" ref="K8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="32" cm="1">
+        <f t="array" ref="L8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="32" cm="1">
+        <f t="array" ref="M8">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <v>OT allowance</v>
+      </c>
+      <c r="B9" s="32" cm="1">
+        <f t="array" ref="B9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="32" cm="1">
+        <f t="array" ref="C9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="32" cm="1">
+        <f t="array" ref="D9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="32" cm="1">
+        <f t="array" ref="E9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="32" cm="1">
+        <f t="array" ref="F9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="32" cm="1">
+        <f t="array" ref="G9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" cm="1">
+        <f t="array" ref="H9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="32" cm="1">
+        <f t="array" ref="I9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="32" cm="1">
+        <f t="array" ref="J9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="32" cm="1">
+        <f t="array" ref="K9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="32" cm="1">
+        <f t="array" ref="L9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="32" cm="1">
+        <f t="array" ref="M9">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <v>interest</v>
+      </c>
+      <c r="B10" s="32" cm="1">
+        <f t="array" ref="B10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="32" cm="1">
+        <f t="array" ref="C10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="32" cm="1">
+        <f t="array" ref="D10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="32" cm="1">
+        <f t="array" ref="E10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="32" cm="1">
+        <f t="array" ref="F10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="32" cm="1">
+        <f t="array" ref="G10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" cm="1">
+        <f t="array" ref="H10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="32" cm="1">
+        <f t="array" ref="I10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="32" cm="1">
+        <f t="array" ref="J10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="32" cm="1">
+        <f t="array" ref="K10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="32" cm="1">
+        <f t="array" ref="L10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="32" cm="1">
+        <f t="array" ref="M10">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <v>Clothing &amp; Appreals</v>
+      </c>
+      <c r="B11" s="32" cm="1">
+        <f t="array" ref="B11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="32" cm="1">
+        <f t="array" ref="C11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="32" cm="1">
+        <f t="array" ref="D11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="32" cm="1">
+        <f t="array" ref="E11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="32" cm="1">
+        <f t="array" ref="F11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="32" cm="1">
+        <f t="array" ref="G11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="32" cm="1">
+        <f t="array" ref="H11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="32" cm="1">
+        <f t="array" ref="I11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="32" cm="1">
+        <f t="array" ref="J11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="32" cm="1">
+        <f t="array" ref="K11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="32" cm="1">
+        <f t="array" ref="L11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="32" cm="1">
+        <f t="array" ref="M11">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <v>jewelry</v>
+      </c>
+      <c r="B12" s="32" cm="1">
+        <f t="array" ref="B12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="32" cm="1">
+        <f t="array" ref="C12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32" cm="1">
+        <f t="array" ref="D12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="32" cm="1">
+        <f t="array" ref="E12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="32" cm="1">
+        <f t="array" ref="F12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="32" cm="1">
+        <f t="array" ref="G12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" cm="1">
+        <f t="array" ref="H12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="32" cm="1">
+        <f t="array" ref="I12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="32" cm="1">
+        <f t="array" ref="J12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="32" cm="1">
+        <f t="array" ref="K12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="32" cm="1">
+        <f t="array" ref="L12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="32" cm="1">
+        <f t="array" ref="M12">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <v>Books &amp; Supplies</v>
+      </c>
+      <c r="B13" s="32" cm="1">
+        <f t="array" ref="B13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="32" cm="1">
+        <f t="array" ref="C13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="32" cm="1">
+        <f t="array" ref="D13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="32" cm="1">
+        <f t="array" ref="E13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="32" cm="1">
+        <f t="array" ref="F13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="32" cm="1">
+        <f t="array" ref="G13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" cm="1">
+        <f t="array" ref="H13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="32" cm="1">
+        <f t="array" ref="I13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="32" cm="1">
+        <f t="array" ref="J13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="32" cm="1">
+        <f t="array" ref="K13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="32" cm="1">
+        <f t="array" ref="L13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="32" cm="1">
+        <f t="array" ref="M13">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <v>Healthcare (Family Members)</v>
+      </c>
+      <c r="B14" s="32" cm="1">
+        <f t="array" ref="B14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="32" cm="1">
+        <f t="array" ref="C14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="32" cm="1">
+        <f t="array" ref="D14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="32" cm="1">
+        <f t="array" ref="E14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="32" cm="1">
+        <f t="array" ref="F14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="32" cm="1">
+        <f t="array" ref="G14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" cm="1">
+        <f t="array" ref="H14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="32" cm="1">
+        <f t="array" ref="I14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="32" cm="1">
+        <f t="array" ref="J14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="32" cm="1">
+        <f t="array" ref="K14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="32" cm="1">
+        <f t="array" ref="L14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="32" cm="1">
+        <f t="array" ref="M14">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <v>Mutal Fund</v>
+      </c>
+      <c r="B15" s="32" cm="1">
+        <f t="array" ref="B15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="32" cm="1">
+        <f t="array" ref="C15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="32" cm="1">
+        <f t="array" ref="D15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="32" cm="1">
+        <f t="array" ref="E15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="32" cm="1">
+        <f t="array" ref="F15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="32" cm="1">
+        <f t="array" ref="G15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="32" cm="1">
+        <f t="array" ref="H15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="32" cm="1">
+        <f t="array" ref="I15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="32" cm="1">
+        <f t="array" ref="J15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="32" cm="1">
+        <f t="array" ref="K15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="32" cm="1">
+        <f t="array" ref="L15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="32" cm="1">
+        <f t="array" ref="M15">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <v>Donations</v>
+      </c>
+      <c r="B16" s="32" cm="1">
+        <f t="array" ref="B16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="32" cm="1">
+        <f t="array" ref="C16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="32" cm="1">
+        <f t="array" ref="D16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="32" cm="1">
+        <f t="array" ref="E16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="32" cm="1">
+        <f t="array" ref="F16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="32" cm="1">
+        <f t="array" ref="G16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" cm="1">
+        <f t="array" ref="H16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="32" cm="1">
+        <f t="array" ref="I16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="32" cm="1">
+        <f t="array" ref="J16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="32" cm="1">
+        <f t="array" ref="K16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="32" cm="1">
+        <f t="array" ref="L16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="32" cm="1">
+        <f t="array" ref="M16">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <v>Other 8</v>
+      </c>
+      <c r="B17" s="32" cm="1">
+        <f t="array" ref="B17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="32" cm="1">
+        <f t="array" ref="C17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="32" cm="1">
+        <f t="array" ref="D17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="32" cm="1">
+        <f t="array" ref="E17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="32" cm="1">
+        <f t="array" ref="F17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="32" cm="1">
+        <f t="array" ref="G17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="32" cm="1">
+        <f t="array" ref="H17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="32" cm="1">
+        <f t="array" ref="I17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="32" cm="1">
+        <f t="array" ref="J17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="32" cm="1">
+        <f t="array" ref="K17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="32" cm="1">
+        <f t="array" ref="L17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="32" cm="1">
+        <f t="array" ref="M17">SUMPRODUCT(
+  --ISNUMBER(Tracking!$A$9:$A$1000),
+  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
+  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
+  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
+  IFERROR(Tracking!$E$9:$E$1000,0)
+)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D14">
+  <conditionalFormatting sqref="B5:M5">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -13449,7 +14678,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/Personal Budget 07072025(1).xlsx
+++ b/Personal Budget 07072025(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YongSeng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8ED62-B669-4ADB-8075-F07481F8ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003EEAD0-C9CE-4533-89A5-774AAA4CC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{5DA0C669-F45A-456B-BFCF-7A020D658E29}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
   <si>
     <t>Personal</t>
   </si>
@@ -413,42 +413,12 @@
     <t>Month</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -513,6 +483,39 @@
   </si>
   <si>
     <t>Monthly Income</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -773,6 +776,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,21 +804,12 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -851,6 +849,12 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
@@ -7774,8 +7778,8 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CCD2AF37-2882-4B26-A14B-6E2F97C729AC}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{64042C22-EBF1-4DD6-8993-A53786668798}" name="Income" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C8F3736E-90E4-4666-AC77-131761CB8EBF}" name="Expenses" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{5822D85E-2B2B-438E-8F25-E254A0C83A8F}" name="Amount" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C8F3736E-90E4-4666-AC77-131761CB8EBF}" name="Expenses" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5822D85E-2B2B-438E-8F25-E254A0C83A8F}" name="Amount" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{A8BF561B-22DC-4579-864B-A5087118BEA2}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8118,24 +8122,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.85" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="G2" s="11"/>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8197,7 +8201,7 @@
         <f>$A$4</f>
         <v>Personal</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="27" t="s">
         <v>89</v>
       </c>
       <c r="H4" s="2" t="str" cm="1">
@@ -8251,7 +8255,7 @@
         <f t="shared" ref="F5:F15" si="0">$A$4</f>
         <v>Personal</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="2" t="str">
         <v>jewelry</v>
       </c>
@@ -8280,7 +8284,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -8307,7 +8311,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -8334,7 +8338,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -8358,7 +8362,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -8382,7 +8386,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -8406,7 +8410,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -8430,7 +8434,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -8452,7 +8456,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -8476,7 +8480,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -8500,7 +8504,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -8526,7 +8530,7 @@
         <f>$A$16</f>
         <v>Education</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -8553,7 +8557,7 @@
         <f t="shared" ref="F17:F19" si="1">$A$16</f>
         <v>Education</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -8577,7 +8581,7 @@
         <f t="shared" si="1"/>
         <v>Education</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -8601,7 +8605,7 @@
         <f t="shared" si="1"/>
         <v>Education</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -8627,7 +8631,7 @@
         <f>$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -8651,7 +8655,7 @@
         <f>$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -8675,7 +8679,7 @@
         <f t="shared" ref="F22:F24" si="2">$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -8699,7 +8703,7 @@
         <f t="shared" si="2"/>
         <v>Entertainment</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -8723,7 +8727,7 @@
         <f t="shared" si="2"/>
         <v>Entertainment</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -11354,24 +11358,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.85" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H2" s="11"/>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11420,7 +11424,7 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" t="b">
@@ -11430,7 +11434,7 @@
         <f>$A$4</f>
         <v>Employment</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="27" t="s">
         <v>89</v>
       </c>
       <c r="I4" s="9" t="str" cm="1">
@@ -11472,7 +11476,7 @@
     </row>
     <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" t="b">
@@ -11482,7 +11486,7 @@
         <f t="shared" ref="F5:F10" si="0">$A$4</f>
         <v>Employment</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="9" t="str">
         <v>OT allowance</v>
       </c>
@@ -11503,7 +11507,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -11522,7 +11526,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -11542,7 +11546,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -11559,7 +11563,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -11576,7 +11580,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -11596,7 +11600,7 @@
         <f>$A$11</f>
         <v>Part time</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -11613,7 +11617,7 @@
         <f t="shared" ref="F12:F14" si="1">$A$11</f>
         <v>Part time</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -11630,7 +11634,7 @@
         <f t="shared" si="1"/>
         <v>Part time</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -11647,7 +11651,7 @@
         <f t="shared" si="1"/>
         <v>Part time</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -11667,7 +11671,7 @@
         <f>$A$15</f>
         <v>Side hustles</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -11684,7 +11688,7 @@
         <f t="shared" ref="F16:F18" si="2">$A$15</f>
         <v>Side hustles</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -11701,7 +11705,7 @@
         <f t="shared" si="2"/>
         <v>Side hustles</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -11718,7 +11722,7 @@
         <f t="shared" si="2"/>
         <v>Side hustles</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -11741,7 +11745,7 @@
         <f>$A$19</f>
         <v>Investment return</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -11758,7 +11762,7 @@
         <f t="shared" ref="F20:F22" si="3">$A$19</f>
         <v>Investment return</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -11775,7 +11779,7 @@
         <f t="shared" si="3"/>
         <v>Investment return</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -11792,7 +11796,7 @@
         <f t="shared" si="3"/>
         <v>Investment return</v>
       </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -11812,7 +11816,7 @@
         <f>$A$23</f>
         <v>Rental income</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -11829,7 +11833,7 @@
         <f t="shared" ref="F24:F25" si="4">$A$23</f>
         <v>Rental income</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -11850,10 +11854,10 @@
     </row>
     <row r="26" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" t="b">
@@ -11883,7 +11887,7 @@
     </row>
     <row r="29" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D29" s="9"/>
       <c r="F29" t="str">
@@ -12821,7 +12825,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12835,68 +12839,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27">
+      <c r="A1" s="31">
         <v>2025</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>119</v>
+      <c r="B1" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D2" s="15">
         <f>SUMIFS(Transactions[Amount], Transactions[Income], "&lt;&gt;", Transactions[Date], "&gt;=" &amp; DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), Transactions[Date], "&lt;=" &amp; EOMONTH(DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), 0))</f>
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D3" s="15">
         <f>SUMIFS(Transactions[Amount], Transactions[Expenses], "&lt;&gt;", Transactions[Date], "&gt;=" &amp; DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), Transactions[Date], "&lt;=" &amp; EOMONTH(DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), 0))</f>
-        <v>218</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D4" s="15">
         <f>$D$2-$D$3</f>
-        <v>-118</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D5" s="20">
         <f>IFERROR($D$3/$D$2, 0)</f>
-        <v>2.1800000000000002</v>
+        <v>0.93939393939393945</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C6" s="14">
         <f ca="1">TODAY()</f>
-        <v>45856</v>
+        <v>45860</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -12904,19 +12908,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -12924,11 +12928,11 @@
         <v>45849</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="33">
-        <v>100</v>
+      <c r="F9" s="25">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -12939,7 +12943,7 @@
       <c r="E10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="25">
         <v>30</v>
       </c>
     </row>
@@ -12948,10 +12952,10 @@
         <v>45814</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="F11" s="33">
+      <c r="F11" s="25">
         <v>150</v>
       </c>
     </row>
@@ -12963,8 +12967,8 @@
       <c r="E12" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="33">
-        <v>200</v>
+      <c r="F12" s="25">
+        <v>198</v>
       </c>
       <c r="J12" s="19"/>
     </row>
@@ -12976,42 +12980,42 @@
       <c r="E13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="33">
-        <v>188</v>
+      <c r="F13" s="25">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="17" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13020,10 +13024,10 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="F9:F18">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$D9&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$E9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13107,10 +13111,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A4C3E1-4865-4C31-9CD3-150CAF75F45D}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="H22:I22"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13120,59 +13124,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B3" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
@@ -13200,7 +13204,7 @@
       </c>
       <c r="H3" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025,8, 1))</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
@@ -13222,14 +13226,14 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="23">
         <f>SUM(B3:M3)</f>
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
@@ -13253,11 +13257,11 @@
       </c>
       <c r="G4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="I4" s="16">
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
@@ -13279,71 +13283,71 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="23">
         <f>SUM(B4:M4)</f>
-        <v>418</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B5" s="16">
-        <f>B3-B4</f>
+        <f t="shared" ref="B5:M5" si="0">B3-B4</f>
         <v>0</v>
       </c>
       <c r="C5" s="16">
-        <f>C3-C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <f>D3-D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="16">
-        <f>E3-E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="16">
-        <f>F3-F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="16">
-        <f>G3-G4</f>
-        <v>-50</v>
+        <f t="shared" si="0"/>
+        <v>-48</v>
       </c>
       <c r="H5" s="16">
-        <f>H3-H4</f>
-        <v>-118</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="I5" s="16">
-        <f>I3-I4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="16">
-        <f>J3-J4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="16">
-        <f>K3-K4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="16">
-        <f>L3-L4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="16">
-        <f>M3-M4</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="23">
         <f>SUM(B5:M5)</f>
-        <v>-168</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B6" s="16">
         <f>SUM($B$5:B5)</f>
@@ -13367,31 +13371,31 @@
       </c>
       <c r="G6" s="16">
         <f>SUM($B$5:G5)</f>
-        <v>-50</v>
+        <v>-48</v>
       </c>
       <c r="H6" s="16">
         <f>SUM($B$5:H5)</f>
-        <v>-168</v>
+        <v>-42</v>
       </c>
       <c r="I6" s="16">
         <f>SUM($B$5:I5)</f>
-        <v>-168</v>
+        <v>-42</v>
       </c>
       <c r="J6" s="16">
         <f>SUM($B$5:J5)</f>
-        <v>-168</v>
+        <v>-42</v>
       </c>
       <c r="K6" s="16">
         <f>SUM($B$5:K5)</f>
-        <v>-168</v>
+        <v>-42</v>
       </c>
       <c r="L6" s="16">
         <f>SUM($B$5:L5)</f>
-        <v>-168</v>
+        <v>-42</v>
       </c>
       <c r="M6" s="16">
         <f>SUM($B$5:M5)</f>
-        <v>-168</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -13402,124 +13406,56 @@
 )</f>
         <v>Monthly salary</v>
       </c>
-      <c r="B8" s="32" cm="1">
-        <f t="array" ref="B8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="32" cm="1">
-        <f t="array" ref="C8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="32" cm="1">
-        <f t="array" ref="D8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="32" cm="1">
-        <f t="array" ref="E8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="32" cm="1">
-        <f t="array" ref="F8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="32" cm="1">
-        <f t="array" ref="G8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="32" cm="1">
-        <f t="array" ref="H8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="32" cm="1">
-        <f t="array" ref="I8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="32" cm="1">
-        <f t="array" ref="J8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="32" cm="1">
-        <f t="array" ref="K8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="32" cm="1">
-        <f t="array" ref="L8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="32" cm="1">
-        <f t="array" ref="M8">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A8)+(Tracking!$D$9:$D$1000=$A8)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
+      <c r="B8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <f>SUMIFS(Transactions[Remark],Transactions[Expenses],"="&amp;$A8,Transactions[Income],"&gt;="&amp;DATE(2025,6, 1),Transactions[Income],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Remark],Transactions[Amount],"="&amp;$A8,Transactions[Income],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Income],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="34">
+        <f>SUM($B8:$M8)</f>
         <v>0</v>
       </c>
     </row>
@@ -13527,249 +13463,113 @@
       <c r="A9" t="str">
         <v>OT allowance</v>
       </c>
-      <c r="B9" s="32" cm="1">
-        <f t="array" ref="B9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="32" cm="1">
-        <f t="array" ref="C9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="32" cm="1">
-        <f t="array" ref="D9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="32" cm="1">
-        <f t="array" ref="E9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="32" cm="1">
-        <f t="array" ref="F9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="32" cm="1">
-        <f t="array" ref="G9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="32" cm="1">
-        <f t="array" ref="H9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="32" cm="1">
-        <f t="array" ref="I9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="32" cm="1">
-        <f t="array" ref="J9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="32" cm="1">
-        <f t="array" ref="K9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="32" cm="1">
-        <f t="array" ref="L9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="32" cm="1">
-        <f t="array" ref="M9">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A9)+(Tracking!$D$9:$D$1000=$A9)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
+      <c r="B9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A9,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>150</v>
+      </c>
+      <c r="H9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>99</v>
+      </c>
+      <c r="I9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="34">
+        <f t="shared" ref="N9:N17" si="1">SUM($B9:$M9)</f>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>interest</v>
       </c>
-      <c r="B10" s="32" cm="1">
-        <f t="array" ref="B10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="32" cm="1">
-        <f t="array" ref="C10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="32" cm="1">
-        <f t="array" ref="D10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="32" cm="1">
-        <f t="array" ref="E10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="32" cm="1">
-        <f t="array" ref="F10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="32" cm="1">
-        <f t="array" ref="G10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="32" cm="1">
-        <f t="array" ref="H10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="32" cm="1">
-        <f t="array" ref="I10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="32" cm="1">
-        <f t="array" ref="J10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="32" cm="1">
-        <f t="array" ref="K10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="32" cm="1">
-        <f t="array" ref="L10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="32" cm="1">
-        <f t="array" ref="M10">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A10)+(Tracking!$D$9:$D$1000=$A10)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
+      <c r="B10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A10,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13777,249 +13577,113 @@
       <c r="A11" t="str">
         <v>Clothing &amp; Appreals</v>
       </c>
-      <c r="B11" s="32" cm="1">
-        <f t="array" ref="B11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="32" cm="1">
-        <f t="array" ref="C11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="32" cm="1">
-        <f t="array" ref="D11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="32" cm="1">
-        <f t="array" ref="E11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="32" cm="1">
-        <f t="array" ref="F11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="32" cm="1">
-        <f t="array" ref="G11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="32" cm="1">
-        <f t="array" ref="H11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="32" cm="1">
-        <f t="array" ref="I11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="32" cm="1">
-        <f t="array" ref="J11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" cm="1">
-        <f t="array" ref="K11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="32" cm="1">
-        <f t="array" ref="L11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="32" cm="1">
-        <f t="array" ref="M11">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A11)+(Tracking!$D$9:$D$1000=$A11)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
+      <c r="B11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A11,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>30</v>
+      </c>
+      <c r="I11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="34">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>jewelry</v>
       </c>
-      <c r="B12" s="32" cm="1">
-        <f t="array" ref="B12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="32" cm="1">
-        <f t="array" ref="C12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="32" cm="1">
-        <f t="array" ref="D12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="32" cm="1">
-        <f t="array" ref="E12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="32" cm="1">
-        <f t="array" ref="F12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="32" cm="1">
-        <f t="array" ref="G12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="32" cm="1">
-        <f t="array" ref="H12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="32" cm="1">
-        <f t="array" ref="I12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="32" cm="1">
-        <f t="array" ref="J12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="32" cm="1">
-        <f t="array" ref="K12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="32" cm="1">
-        <f t="array" ref="L12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="32" cm="1">
-        <f t="array" ref="M12">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A12)+(Tracking!$D$9:$D$1000=$A12)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
+      <c r="B12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A12,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14027,249 +13691,113 @@
       <c r="A13" t="str">
         <v>Books &amp; Supplies</v>
       </c>
-      <c r="B13" s="32" cm="1">
-        <f t="array" ref="B13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="32" cm="1">
-        <f t="array" ref="C13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="32" cm="1">
-        <f t="array" ref="D13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="32" cm="1">
-        <f t="array" ref="E13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="32" cm="1">
-        <f t="array" ref="F13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="32" cm="1">
-        <f t="array" ref="G13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="32" cm="1">
-        <f t="array" ref="H13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="32" cm="1">
-        <f t="array" ref="I13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="32" cm="1">
-        <f t="array" ref="J13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="32" cm="1">
-        <f t="array" ref="K13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="32" cm="1">
-        <f t="array" ref="L13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="32" cm="1">
-        <f t="array" ref="M13">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A13)+(Tracking!$D$9:$D$1000=$A13)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
+      <c r="B13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A13,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>63</v>
+      </c>
+      <c r="I13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="34">
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>Healthcare (Family Members)</v>
       </c>
-      <c r="B14" s="32" cm="1">
-        <f t="array" ref="B14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="32" cm="1">
-        <f t="array" ref="C14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="32" cm="1">
-        <f t="array" ref="D14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="32" cm="1">
-        <f t="array" ref="E14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="32" cm="1">
-        <f t="array" ref="F14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="32" cm="1">
-        <f t="array" ref="G14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="32" cm="1">
-        <f t="array" ref="H14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="32" cm="1">
-        <f t="array" ref="I14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="32" cm="1">
-        <f t="array" ref="J14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="32" cm="1">
-        <f t="array" ref="K14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="32" cm="1">
-        <f t="array" ref="L14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="32" cm="1">
-        <f t="array" ref="M14">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A14)+(Tracking!$D$9:$D$1000=$A14)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
+      <c r="B14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A14,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14277,124 +13805,56 @@
       <c r="A15" t="str">
         <v>Mutal Fund</v>
       </c>
-      <c r="B15" s="32" cm="1">
-        <f t="array" ref="B15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="32" cm="1">
-        <f t="array" ref="C15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="32" cm="1">
-        <f t="array" ref="D15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="32" cm="1">
-        <f t="array" ref="E15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="32" cm="1">
-        <f t="array" ref="F15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="32" cm="1">
-        <f t="array" ref="G15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="32" cm="1">
-        <f t="array" ref="H15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="32" cm="1">
-        <f t="array" ref="I15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="32" cm="1">
-        <f t="array" ref="J15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="32" cm="1">
-        <f t="array" ref="K15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="32" cm="1">
-        <f t="array" ref="L15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="32" cm="1">
-        <f t="array" ref="M15">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A15)+(Tracking!$D$9:$D$1000=$A15)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
+      <c r="B15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A15,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14402,251 +13862,118 @@
       <c r="A16" t="str">
         <v>Donations</v>
       </c>
-      <c r="B16" s="32" cm="1">
-        <f t="array" ref="B16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="32" cm="1">
-        <f t="array" ref="C16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="32" cm="1">
-        <f t="array" ref="D16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="32" cm="1">
-        <f t="array" ref="E16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="32" cm="1">
-        <f t="array" ref="F16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="32" cm="1">
-        <f t="array" ref="G16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="32" cm="1">
-        <f t="array" ref="H16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="32" cm="1">
-        <f t="array" ref="I16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="32" cm="1">
-        <f t="array" ref="J16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="32" cm="1">
-        <f t="array" ref="K16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="32" cm="1">
-        <f t="array" ref="L16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="32" cm="1">
-        <f t="array" ref="M16">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A16)+(Tracking!$D$9:$D$1000=$A16)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A16,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>Other 8</v>
       </c>
-      <c r="B17" s="32" cm="1">
-        <f t="array" ref="B17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=B$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="32" cm="1">
-        <f t="array" ref="C17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=C$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="32" cm="1">
-        <f t="array" ref="D17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=D$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="32" cm="1">
-        <f t="array" ref="E17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=E$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="32" cm="1">
-        <f t="array" ref="F17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=F$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="32" cm="1">
-        <f t="array" ref="G17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=G$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="32" cm="1">
-        <f t="array" ref="H17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=H$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="32" cm="1">
-        <f t="array" ref="I17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=I$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="32" cm="1">
-        <f t="array" ref="J17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=J$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="32" cm="1">
-        <f t="array" ref="K17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=K$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="32" cm="1">
-        <f t="array" ref="L17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=L$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="32" cm="1">
-        <f t="array" ref="M17">SUMPRODUCT(
-  --ISNUMBER(Tracking!$A$9:$A$1000),
-  --(YEAR(Tracking!$A$9:$A$1000)=$A$1),
-  --(TEXT(Tracking!$A$9:$A$1000,"mmmm")=M$2),
-  --((Tracking!$C$9:$C$1000=$A17)+(Tracking!$D$9:$D$1000=$A17)&gt;0),
-  IFERROR(Tracking!$E$9:$E$1000,0)
-)</f>
-        <v>0</v>
-      </c>
+      <c r="B17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A17,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <f>SUMIFS(Transactions[Remark],Transactions[Expenses],"="&amp;$A17,Transactions[Income],"&gt;="&amp;DATE(2025,6, 1),Transactions[Income],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Remark],Transactions[Amount],"="&amp;$A17,Transactions[Income],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Income],"&lt;"&amp;DATE(2025, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="24">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -14678,7 +14005,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/Personal Budget 07072025(1).xlsx
+++ b/Personal Budget 07072025(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YongSeng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003EEAD0-C9CE-4533-89A5-774AAA4CC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B91E0D-ED7D-4944-B277-E176800781BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{5DA0C669-F45A-456B-BFCF-7A020D658E29}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>Personal</t>
   </si>
@@ -780,6 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,7 +805,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,6 +873,3450 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Summary of Income and expenses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum of Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FE0-47B7-AE3D-8B7BC701C967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum of expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9FE0-47B7-AE3D-8B7BC701C967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="742927360"/>
+        <c:axId val="742934080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="742927360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742934080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="742934080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742927360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Breakdown of income and expenses</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OT allowance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clothing &amp; Appreals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jewelry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Books &amp; Supplies</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Healthcare (Family Members)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mutal Fund</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Donations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$17:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-FCCB-45BD-8A3E-661A6D7F6159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="742927360"/>
+        <c:axId val="742934080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="742927360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742934080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="742934080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742927360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7772,6 +11216,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8EBFEE-5E77-70FE-0AED-B5597CDC765F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB437B6-3D89-4837-A975-D6615F0ED7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E34541E-8DAB-4786-A8E6-DED94051FB2F}" name="Transactions" displayName="Transactions" ref="C8:G18" totalsRowShown="0">
   <autoFilter ref="C8:G18" xr:uid="{8E34541E-8DAB-4786-A8E6-DED94051FB2F}"/>
@@ -8122,24 +11645,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.85" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="G2" s="11"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8201,7 +11724,7 @@
         <f>$A$4</f>
         <v>Personal</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>89</v>
       </c>
       <c r="H4" s="2" t="str" cm="1">
@@ -8255,7 +11778,7 @@
         <f t="shared" ref="F5:F15" si="0">$A$4</f>
         <v>Personal</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="2" t="str">
         <v>jewelry</v>
       </c>
@@ -8284,7 +11807,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -8311,7 +11834,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -8338,7 +11861,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -8362,7 +11885,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -8386,7 +11909,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -8410,7 +11933,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -8434,7 +11957,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -8456,7 +11979,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -8480,7 +12003,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -8504,7 +12027,7 @@
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -8530,7 +12053,7 @@
         <f>$A$16</f>
         <v>Education</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -8557,7 +12080,7 @@
         <f t="shared" ref="F17:F19" si="1">$A$16</f>
         <v>Education</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -8581,7 +12104,7 @@
         <f t="shared" si="1"/>
         <v>Education</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -8605,7 +12128,7 @@
         <f t="shared" si="1"/>
         <v>Education</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -8631,7 +12154,7 @@
         <f>$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -8655,7 +12178,7 @@
         <f>$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -8679,7 +12202,7 @@
         <f t="shared" ref="F22:F24" si="2">$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -8703,7 +12226,7 @@
         <f t="shared" si="2"/>
         <v>Entertainment</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -8727,7 +12250,7 @@
         <f t="shared" si="2"/>
         <v>Entertainment</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -11358,24 +14881,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.85" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H2" s="11"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11434,7 +14957,7 @@
         <f>$A$4</f>
         <v>Employment</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="28" t="s">
         <v>89</v>
       </c>
       <c r="I4" s="9" t="str" cm="1">
@@ -11486,7 +15009,7 @@
         <f t="shared" ref="F5:F10" si="0">$A$4</f>
         <v>Employment</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="9" t="str">
         <v>OT allowance</v>
       </c>
@@ -11507,7 +15030,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -11526,7 +15049,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -11546,7 +15069,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -11563,7 +15086,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -11580,7 +15103,7 @@
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -11600,7 +15123,7 @@
         <f>$A$11</f>
         <v>Part time</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -11617,7 +15140,7 @@
         <f t="shared" ref="F12:F14" si="1">$A$11</f>
         <v>Part time</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -11634,7 +15157,7 @@
         <f t="shared" si="1"/>
         <v>Part time</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -11651,7 +15174,7 @@
         <f t="shared" si="1"/>
         <v>Part time</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -11671,7 +15194,7 @@
         <f>$A$15</f>
         <v>Side hustles</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -11688,7 +15211,7 @@
         <f t="shared" ref="F16:F18" si="2">$A$15</f>
         <v>Side hustles</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -11705,7 +15228,7 @@
         <f t="shared" si="2"/>
         <v>Side hustles</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -11722,7 +15245,7 @@
         <f t="shared" si="2"/>
         <v>Side hustles</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -11745,7 +15268,7 @@
         <f>$A$19</f>
         <v>Investment return</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -11762,7 +15285,7 @@
         <f t="shared" ref="F20:F22" si="3">$A$19</f>
         <v>Investment return</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -11779,7 +15302,7 @@
         <f t="shared" si="3"/>
         <v>Investment return</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -11796,7 +15319,7 @@
         <f t="shared" si="3"/>
         <v>Investment return</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -11816,7 +15339,7 @@
         <f>$A$23</f>
         <v>Rental income</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -11833,7 +15356,7 @@
         <f t="shared" ref="F24:F25" si="4">$A$23</f>
         <v>Rental income</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -12839,10 +16362,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31">
+      <c r="A1" s="32">
         <v>2025</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C1" t="s">
@@ -12851,8 +16374,8 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" t="s">
         <v>136</v>
       </c>
@@ -12862,8 +16385,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" t="s">
         <v>135</v>
       </c>
@@ -12873,8 +16396,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" t="s">
         <v>127</v>
       </c>
@@ -12884,8 +16407,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" t="s">
         <v>129</v>
       </c>
@@ -13113,8 +16636,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13398,6 +16921,47 @@
         <v>-42</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str" cm="1">
         <f t="array" ref="A8:A17">_xlfn.LET(
@@ -13454,7 +17018,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="26">
         <f>SUM($B8:$M8)</f>
         <v>0</v>
       </c>
@@ -13511,7 +17075,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="26">
         <f t="shared" ref="N9:N17" si="1">SUM($B9:$M9)</f>
         <v>249</v>
       </c>
@@ -13568,7 +17132,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13625,7 +17189,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="26">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -13682,7 +17246,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13739,7 +17303,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="26">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
@@ -13796,7 +17360,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13853,7 +17417,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13910,7 +17474,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13967,7 +17531,7 @@
         <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13987,6 +17551,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Personal Budget 07072025(1).xlsx
+++ b/Personal Budget 07072025(1).xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YongSeng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B91E0D-ED7D-4944-B277-E176800781BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F312F2-B31C-42A0-8AF8-C49F5EBEA077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{5DA0C669-F45A-456B-BFCF-7A020D658E29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{5DA0C669-F45A-456B-BFCF-7A020D658E29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Selection of expenses" sheetId="1" r:id="rId1"/>
-    <sheet name="Select of income" sheetId="2" r:id="rId2"/>
-    <sheet name="Tracking" sheetId="4" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="3" r:id="rId4"/>
-    <sheet name="Data validation" sheetId="5" r:id="rId5"/>
+    <sheet name="Welcome" sheetId="6" r:id="rId1"/>
+    <sheet name="Selection of expenses" sheetId="1" r:id="rId2"/>
+    <sheet name="Select of income" sheetId="2" r:id="rId3"/>
+    <sheet name="Tracking" sheetId="4" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId5"/>
+    <sheet name="Data validation" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Expenses_education">'Selection of expenses'!$I$4:$I$24</definedName>
@@ -28,6 +29,7 @@
     <definedName name="Expenses_new_category">'Selection of expenses'!$O$4:$O$24</definedName>
     <definedName name="Expenses_other_misc">'Selection of expenses'!$N$4:$N$24</definedName>
     <definedName name="Expenses_personal">'Selection of expenses'!$H$4:$H$24</definedName>
+    <definedName name="Year">Tracking!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="167">
   <si>
     <t>Personal</t>
   </si>
@@ -215,9 +217,6 @@
     <t>Childcare</t>
   </si>
   <si>
-    <t>Daycare, preschool, babysitters</t>
-  </si>
-  <si>
     <t>Children's Activities</t>
   </si>
   <si>
@@ -314,9 +313,6 @@
     <t>spa treatments</t>
   </si>
   <si>
-    <t xml:space="preserve">supplements, </t>
-  </si>
-  <si>
     <t>massages</t>
   </si>
   <si>
@@ -383,9 +379,6 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Mutal Fund</t>
-  </si>
-  <si>
     <t>Endowment</t>
   </si>
   <si>
@@ -407,16 +400,10 @@
     <t>Employment</t>
   </si>
   <si>
-    <t>Deviden</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>July</t>
   </si>
   <si>
     <t>Total</t>
@@ -458,19 +445,10 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Previous balance</t>
-  </si>
-  <si>
     <t>Expense/Income %</t>
   </si>
   <si>
     <t>Balance ($)</t>
-  </si>
-  <si>
-    <t>sum of Income</t>
-  </si>
-  <si>
-    <t>sum of expenses</t>
   </si>
   <si>
     <t>Enter TAB to add more row</t>
@@ -517,6 +495,87 @@
   <si>
     <t>Dec</t>
   </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Personal Finance Tracker</t>
+  </si>
+  <si>
+    <t>Welcome to your personal finance tracker. This tool is designed to help you easily log and visualize your income and expenses.</t>
+  </si>
+  <si>
+    <t>Functions of Each Sheet</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>Customize your selection of income and categories.</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Review your financial summary.</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>For questions or feedback, please contact: your-email@example.com</t>
+  </si>
+  <si>
+    <t>Log your daily transaction.</t>
+  </si>
+  <si>
+    <t>Last update on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>Clothing &amp; Apparels</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Tip: Check the boxes to select the categories you want to track. </t>
+  </si>
+  <si>
+    <t>supplements</t>
+  </si>
+  <si>
+    <t>Examples of expenses</t>
+  </si>
+  <si>
+    <t>Selling of stock</t>
+  </si>
+  <si>
+    <t>Property rental</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>Upwork</t>
+  </si>
+  <si>
+    <t>Monthly Snapshot</t>
+  </si>
+  <si>
+    <t>Sum of Income</t>
+  </si>
+  <si>
+    <t>Sum of expenses</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +586,7 @@
     <numFmt numFmtId="165" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,40 +603,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color rgb="FF1B1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1B1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Comic Sans MS"/>
-      <family val="4"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -585,21 +610,109 @@
     </font>
     <font>
       <b/>
+      <sz val="24"/>
+      <color rgb="FF002060"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,19 +745,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,88 +859,234 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -849,18 +1126,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-14809]d\ mmm\ yyyy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -972,7 +1237,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sum of Income</c:v>
+                  <c:v>Sum of Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1085,7 +1350,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1120,7 +1385,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sum of expenses</c:v>
+                  <c:v>Sum of expenses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1230,10 +1495,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1509,6 +1774,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30069489292334789"/>
+          <c:y val="1.0858283160085294E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1604,50 +1877,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$8:$M$8</c:f>
@@ -1694,6 +1923,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -1752,50 +1996,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$9:$M$9</c:f>
@@ -1821,7 +2021,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1842,6 +2042,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -1900,50 +2115,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$10:$M$10</c:f>
@@ -1990,6 +2161,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -2004,7 +2190,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clothing &amp; Appreals</c:v>
+                  <c:v>Clothing &amp; Apparels</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2048,50 +2234,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$11:$M$11</c:f>
@@ -2117,7 +2259,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2138,6 +2280,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -2196,50 +2353,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$12:$M$12</c:f>
@@ -2286,6 +2399,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -2300,7 +2428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Books &amp; Supplies</c:v>
+                  <c:v>massages</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2344,50 +2472,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$13:$M$13</c:f>
@@ -2413,7 +2497,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2434,6 +2518,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -2448,7 +2547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Healthcare (Family Members)</c:v>
+                  <c:v>Books &amp; Supplies</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2495,50 +2594,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$14:$M$14</c:f>
@@ -2564,7 +2619,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2585,6 +2640,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -2599,7 +2669,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mutal Fund</c:v>
+                  <c:v>Healthcare (Family Members)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2646,50 +2716,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$15:$M$15</c:f>
@@ -2736,6 +2762,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -2750,7 +2791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Donations</c:v>
+                  <c:v>Mutual Fund</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2797,50 +2838,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$16:$M$16</c:f>
@@ -2887,6 +2884,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -2901,7 +2913,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other 8</c:v>
+                  <c:v>Donations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2948,50 +2960,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$7:$M$7</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Jan</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Apr</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jun</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jul</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Sep</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oct</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Dec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Dashboard!$B$17:$M$17</c:f>
@@ -3038,6 +3006,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Dashboard!$B$7:$M$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-FCCB-45BD-8A3E-661A6D7F6159}"/>
             </c:ext>
@@ -4436,7 +4419,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4720,7 +4703,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -4787,7 +4770,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -4854,7 +4837,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -4921,7 +4904,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -4988,7 +4971,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5055,7 +5038,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5122,7 +5105,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5189,7 +5172,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5256,7 +5239,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5323,7 +5306,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5390,7 +5373,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5457,7 +5440,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5524,7 +5507,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5591,7 +5574,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5658,7 +5641,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5725,7 +5708,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5792,7 +5775,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5859,7 +5842,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5926,7 +5909,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -5993,7 +5976,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6060,7 +6043,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6127,7 +6110,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6194,7 +6177,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6261,7 +6244,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6328,7 +6311,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6395,7 +6378,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6462,7 +6445,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6529,7 +6512,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6596,7 +6579,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6663,7 +6646,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6730,7 +6713,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6797,7 +6780,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6864,7 +6847,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6931,7 +6914,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -6998,7 +6981,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7065,7 +7048,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7132,7 +7115,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7199,7 +7182,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7266,7 +7249,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7333,7 +7316,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7400,7 +7383,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7467,7 +7450,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7534,7 +7517,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7601,7 +7584,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7668,7 +7651,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7735,7 +7718,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7802,7 +7785,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7869,7 +7852,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -7936,7 +7919,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8003,7 +7986,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8070,7 +8053,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8137,7 +8120,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8204,7 +8187,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8271,7 +8254,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>59</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8338,7 +8321,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8405,7 +8388,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8472,7 +8455,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8539,7 +8522,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8606,7 +8589,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8673,7 +8656,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8744,8 +8727,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8811,8 +8794,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8878,8 +8861,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -8945,8 +8928,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9012,8 +8995,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9079,8 +9062,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9146,8 +9129,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9213,8 +9196,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9280,8 +9263,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9347,8 +9330,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9414,8 +9397,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9481,8 +9464,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9548,8 +9531,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9615,8 +9598,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9682,8 +9665,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9749,8 +9732,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9816,8 +9799,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9883,8 +9866,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -9950,8 +9933,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10017,8 +10000,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10084,8 +10067,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10151,8 +10134,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10218,8 +10201,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10285,8 +10268,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10352,8 +10335,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10419,8 +10402,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10486,8 +10469,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10553,8 +10536,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10620,8 +10603,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10687,8 +10670,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10754,8 +10737,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10821,8 +10804,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10888,8 +10871,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -10955,8 +10938,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -11022,8 +11005,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -11089,8 +11072,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -11156,8 +11139,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>53227</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>352425</xdr:rowOff>
         </xdr:to>
@@ -11221,15 +11204,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>781049</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:colOff>33601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>338697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11257,15 +11240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>11189</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235306</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11296,14 +11279,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E34541E-8DAB-4786-A8E6-DED94051FB2F}" name="Transactions" displayName="Transactions" ref="C8:G18" totalsRowShown="0">
-  <autoFilter ref="C8:G18" xr:uid="{8E34541E-8DAB-4786-A8E6-DED94051FB2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E34541E-8DAB-4786-A8E6-DED94051FB2F}" name="Transactions" displayName="Transactions" ref="C8:G19" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="C8:G19" xr:uid="{8E34541E-8DAB-4786-A8E6-DED94051FB2F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CCD2AF37-2882-4B26-A14B-6E2F97C729AC}" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{64042C22-EBF1-4DD6-8993-A53786668798}" name="Income" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C8F3736E-90E4-4666-AC77-131761CB8EBF}" name="Expenses" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5822D85E-2B2B-438E-8F25-E254A0C83A8F}" name="Amount" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A8BF561B-22DC-4579-864B-A5087118BEA2}" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{CCD2AF37-2882-4B26-A14B-6E2F97C729AC}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{64042C22-EBF1-4DD6-8993-A53786668798}" name="Income" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C8F3736E-90E4-4666-AC77-131761CB8EBF}" name="Expenses" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5822D85E-2B2B-438E-8F25-E254A0C83A8F}" name="Amount" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A8BF561B-22DC-4579-864B-A5087118BEA2}" name="Remark" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11625,1906 +11608,2165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13700EA2-20EE-4A9F-A133-7EA26A9757D3}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R305"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2C75D8-DCD7-430A-A96D-ABB7FCDDDD0C}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
+  <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="C39" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="6" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="4" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.85" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" display="mailto:your-email@example.com" xr:uid="{9835CA92-3489-4015-9DBB-9472F30E124C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13700EA2-20EE-4A9F-A133-7EA26A9757D3}">
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:U305"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11" style="22" customWidth="1"/>
+    <col min="5" max="5" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="22" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="8" max="15" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="22"/>
+    <col min="18" max="18" width="28" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="G2" s="11"/>
-      <c r="H2" s="30" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+    </row>
+    <row r="2" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10" t="s">
+      <c r="D3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="M3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" t="b">
+      <c r="B4" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="22" t="str">
         <f>$A$4</f>
         <v>Personal</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="2" t="str" cm="1">
-        <f t="array" ref="H4:H5">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=H$3),"")</f>
-        <v>Clothing &amp; Appreals</v>
-      </c>
-      <c r="I4" s="2" t="str" cm="1">
+      <c r="G4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="29" t="str" cm="1">
+        <f t="array" ref="H4:H6">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=H$3),"")</f>
+        <v>Clothing &amp; Apparels</v>
+      </c>
+      <c r="I4" s="29" t="str" cm="1">
         <f t="array" ref="I4">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=I$3),"")</f>
         <v>Books &amp; Supplies</v>
       </c>
-      <c r="J4" s="2" t="str" cm="1">
+      <c r="J4" s="29" t="str" cm="1">
         <f t="array" ref="J4">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=J$3),"")</f>
         <v/>
       </c>
-      <c r="K4" s="2" t="str" cm="1">
+      <c r="K4" s="29" t="str" cm="1">
         <f t="array" ref="K4">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=K$3),"")</f>
         <v/>
       </c>
-      <c r="L4" s="2" t="str" cm="1">
+      <c r="L4" s="29" t="str" cm="1">
         <f t="array" ref="L4">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=L$3),"")</f>
         <v>Healthcare (Family Members)</v>
       </c>
-      <c r="M4" s="2" t="str" cm="1">
+      <c r="M4" s="29" t="str" cm="1">
         <f t="array" ref="M4">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=M$3),"")</f>
-        <v>Mutal Fund</v>
-      </c>
-      <c r="N4" s="2" t="str" cm="1">
+        <v>Mutual Fund</v>
+      </c>
+      <c r="N4" s="29" t="str" cm="1">
         <f t="array" ref="N4">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=N$3),"")</f>
         <v>Donations</v>
       </c>
-      <c r="O4" s="2" t="str" cm="1">
+      <c r="O4" s="29" t="str" cm="1">
         <f t="array" ref="O4">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE)*($F$4:$F$63=O$3),"")</f>
         <v>Other 8</v>
       </c>
-      <c r="R4" s="2" t="str" cm="1">
-        <f t="array" ref="R4:R10">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE),"")</f>
-        <v>Clothing &amp; Appreals</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
-      <c r="E5" t="b">
+      <c r="R4" s="26" t="str" cm="1">
+        <f t="array" ref="R4:R11">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE),"")</f>
+        <v>Clothing &amp; Apparels</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="22" t="str">
         <f t="shared" ref="F5:F15" si="0">$A$4</f>
         <v>Personal</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="2" t="str">
+      <c r="G5" s="32"/>
+      <c r="H5" s="29" t="str">
         <v>jewelry</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="R5" s="2" t="str">
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="R5" s="26" t="str">
         <v>jewelry</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" t="b">
+    <row r="6" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="R6" s="2" t="str">
-        <v>Books &amp; Supplies</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="29" t="str">
+        <v>massages</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="R6" s="26" t="str">
+        <v>massages</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" t="b">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="R7" s="2" t="str">
-        <v>Healthcare (Family Members)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" t="b">
+      <c r="G7" s="32"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="R7" s="26" t="str">
+        <v>Books &amp; Supplies</v>
+      </c>
+      <c r="U7" s="50"/>
+    </row>
+    <row r="8" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="R8" s="2" t="str">
-        <v>Mutal Fund</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="F9" t="str">
+      <c r="G8" s="32"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="R8" s="26" t="str">
+        <v>Healthcare (Family Members)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="F9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="R9" s="2" t="str">
-        <v>Donations</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="F10" t="str">
+      <c r="G9" s="32"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="R9" s="26" t="str">
+        <v>Mutual Fund</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="F10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="R10" s="2" t="str">
-        <v>Other 8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
-      <c r="F11" t="str">
+      <c r="G10" s="32"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="R10" s="26" t="str">
+        <v>Donations</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="F12" t="str">
+      <c r="G11" s="32"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="R11" s="26" t="str">
+        <v>Other 8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="F12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="F13" t="str">
+      <c r="G12" s="32"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="R12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="F13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="R13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="F14" t="str">
+      <c r="D14" s="54"/>
+      <c r="F14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="R14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="F15" t="str">
+      <c r="D15" s="54"/>
+      <c r="F15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Personal</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="32"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="R15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="F16" t="str">
+      <c r="D16" s="54"/>
+      <c r="F16" s="22" t="str">
         <f>$A$16</f>
         <v>Education</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" t="b">
+      <c r="D17" s="54"/>
+      <c r="E17" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="22" t="str">
         <f t="shared" ref="F17:F19" si="1">$A$16</f>
         <v>Education</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="F18" t="str">
+      <c r="D18" s="54"/>
+      <c r="F18" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Education</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="F19" t="str">
+      <c r="D19" s="54"/>
+      <c r="F19" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Education</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="F20" t="str">
+      <c r="D20" s="54"/>
+      <c r="F20" s="22" t="str">
         <f>$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="F21" t="str">
+      <c r="D21" s="54"/>
+      <c r="F21" s="22" t="str">
         <f>$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="F22" t="str">
+      <c r="D22" s="54"/>
+      <c r="F22" s="22" t="str">
         <f t="shared" ref="F22:F24" si="2">$A$20</f>
         <v>Entertainment</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="R22" s="26"/>
     </row>
     <row r="23" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="F23" t="str">
+      <c r="D23" s="54"/>
+      <c r="F23" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Entertainment</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="F24" t="str">
+      <c r="D24" s="54"/>
+      <c r="F24" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Entertainment</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="F25" t="str">
+      <c r="D25" s="54"/>
+      <c r="F25" s="22" t="str">
         <f>$A$25</f>
         <v>Household</v>
       </c>
-      <c r="R25" s="2"/>
+      <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="F26" t="str">
+      <c r="D26" s="54"/>
+      <c r="F26" s="22" t="str">
         <f t="shared" ref="F26:F30" si="3">$A$25</f>
         <v>Household</v>
       </c>
-      <c r="R26" s="2"/>
+      <c r="R26" s="26"/>
     </row>
     <row r="27" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="F27" t="str">
+      <c r="D27" s="54"/>
+      <c r="F27" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Household</v>
       </c>
-      <c r="R27" s="2"/>
+      <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="F28" t="str">
+      <c r="D28" s="54"/>
+      <c r="F28" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Household</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="F29" t="str">
+      <c r="D29" s="54"/>
+      <c r="F29" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Household</v>
       </c>
-      <c r="R29" s="2"/>
+      <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="F30" t="str">
+      <c r="D30" s="54"/>
+      <c r="F30" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Household</v>
       </c>
-      <c r="R30" s="2"/>
+      <c r="R30" s="26"/>
     </row>
     <row r="31" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="F31" t="str">
+      <c r="D31" s="54"/>
+      <c r="F31" s="22" t="str">
         <f>$A$25</f>
         <v>Household</v>
       </c>
-      <c r="R31" s="2"/>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="F32" t="str">
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="F32" s="22" t="str">
         <f>$A$32</f>
         <v>Family</v>
       </c>
-      <c r="R32" s="2"/>
+      <c r="R32" s="26"/>
     </row>
     <row r="33" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="F33" t="str">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="F33" s="22" t="str">
         <f t="shared" ref="F33:F42" si="4">$A$32</f>
         <v>Family</v>
       </c>
-      <c r="R33" s="2"/>
+      <c r="R33" s="26"/>
     </row>
     <row r="34" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="F34" t="str">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="F34" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
-      <c r="R34" s="2"/>
+      <c r="R34" s="26"/>
     </row>
     <row r="35" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="F35" t="str">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="F35" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
-      <c r="R35" s="2"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="F36" t="str">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="F36" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
-      <c r="R36" s="2"/>
+      <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="F37" t="str">
+      <c r="D37" s="54"/>
+      <c r="F37" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
-      <c r="R37" s="2"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="F38" t="str">
+      <c r="D38" s="54"/>
+      <c r="F38" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
-      <c r="R38" s="2"/>
+      <c r="R38" s="26"/>
     </row>
     <row r="39" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="53"/>
+      <c r="B39" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="F39" t="str">
+      <c r="D39" s="54"/>
+      <c r="F39" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
-      <c r="R39" s="2"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="F40" t="str">
+      <c r="D40" s="54"/>
+      <c r="F40" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
-      <c r="R40" s="2"/>
+      <c r="R40" s="26"/>
     </row>
     <row r="41" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="F41" t="str">
+      <c r="D41" s="54"/>
+      <c r="F41" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" t="b">
+      <c r="D42" s="54"/>
+      <c r="E42" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Family</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="9"/>
-      <c r="E43" t="b">
+      <c r="A43" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43" s="22" t="str">
         <f>$A$43</f>
         <v>Investment</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="9"/>
-      <c r="E44" t="b">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="22" t="str">
         <f t="shared" ref="F44:F45" si="5">$A$43</f>
         <v>Investment</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="9"/>
-      <c r="E45" t="b">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45" s="22" t="str">
         <f t="shared" si="5"/>
         <v>Investment</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" t="b">
+      <c r="D46" s="54"/>
+      <c r="E46" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46" s="22" t="str">
         <f t="shared" ref="F46:F54" si="6">$A$46</f>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="F47" t="str">
+      <c r="D47" s="54"/>
+      <c r="F47" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="F48" t="str">
+      <c r="D48" s="54"/>
+      <c r="F48" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="F49" t="str">
+      <c r="D49" s="54"/>
+      <c r="F49" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="9"/>
-      <c r="F50" t="str">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="F50" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="9"/>
-      <c r="F51" t="str">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="F51" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="9"/>
-      <c r="F52" t="str">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+      <c r="F52" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="9"/>
-      <c r="F53" t="str">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="54"/>
+      <c r="F53" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="9"/>
-      <c r="E54" t="b">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other/Miscellaneous</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="9"/>
-      <c r="F55" t="str">
+      <c r="A55" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="F55" s="22" t="str">
         <f>$A$55</f>
         <v>New Category</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="9"/>
-      <c r="F56" t="str">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
+      <c r="F56" s="22" t="str">
         <f t="shared" ref="F56:F63" si="7">$A$55</f>
         <v>New Category</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="9"/>
-      <c r="F57" t="str">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
+      <c r="F57" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="9"/>
-      <c r="E58" t="b">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="53"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="9"/>
-      <c r="F59" t="str">
+      <c r="A59" s="53"/>
+      <c r="B59" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
+      <c r="F59" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="9"/>
-      <c r="F60" t="str">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="F60" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="9"/>
-      <c r="F61" t="str">
+      <c r="A61" s="53"/>
+      <c r="B61" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
+      <c r="F61" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="9"/>
-      <c r="E62" t="b">
+      <c r="A62" s="53"/>
+      <c r="B62" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="53"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="9"/>
-      <c r="E63" t="b">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="53"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="33"/>
     </row>
     <row r="65" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="33"/>
     </row>
     <row r="66" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="33"/>
     </row>
     <row r="67" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="33"/>
     </row>
     <row r="68" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="33"/>
     </row>
     <row r="69" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="33"/>
     </row>
     <row r="70" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+      <c r="A70" s="34"/>
     </row>
     <row r="71" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="35"/>
     </row>
     <row r="72" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="33"/>
     </row>
     <row r="73" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="33"/>
     </row>
     <row r="74" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="33"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="33"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="33"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="33"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="33"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="33"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="33"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="33"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="33"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="33"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
+      <c r="A84" s="34"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="35"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="33"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="33"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="33"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="33"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="33"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="33"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="33"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
+      <c r="A93" s="34"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+      <c r="A94" s="35"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="33"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="33"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="33"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="33"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="33"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="33"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+      <c r="A101" s="33"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="33"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="33"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
+      <c r="A104" s="34"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+      <c r="A105" s="35"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="33"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="33"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="33"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="A109" s="33"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="33"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-    </row>
-    <row r="113" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
+      <c r="A111" s="33"/>
+    </row>
+    <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A113" s="36"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
+      <c r="A114" s="34"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
+      <c r="A115" s="35"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="33"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="A117" s="33"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="33"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="33"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
+      <c r="A120" s="34"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
+      <c r="A121" s="35"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="A122" s="33"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="A123" s="33"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="A124" s="33"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="A125" s="33"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="A126" s="33"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
+      <c r="A127" s="34"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
+      <c r="A128" s="35"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+      <c r="A129" s="33"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+      <c r="A130" s="33"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
+      <c r="A131" s="33"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
+      <c r="A132" s="34"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
+      <c r="A133" s="35"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
+      <c r="A134" s="33"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
+      <c r="A135" s="33"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="138" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
+      <c r="A136" s="33"/>
+    </row>
+    <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A138" s="36"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
+      <c r="A139" s="34"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
+      <c r="A140" s="35"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
+      <c r="A141" s="33"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+      <c r="A142" s="33"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+      <c r="A143" s="33"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
+      <c r="A144" s="33"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
+      <c r="A145" s="33"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
+      <c r="A146" s="34"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
+      <c r="A147" s="35"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
+      <c r="A148" s="33"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
+      <c r="A149" s="33"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
+      <c r="A150" s="34"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
+      <c r="A151" s="35"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
+      <c r="A152" s="33"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
+      <c r="A153" s="33"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
+      <c r="A154" s="33"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8"/>
+      <c r="A155" s="33"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
+      <c r="A156" s="33"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="8"/>
+      <c r="A157" s="33"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="8"/>
+      <c r="A158" s="33"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="8"/>
+      <c r="A159" s="33"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
+      <c r="A160" s="34"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
+      <c r="A161" s="35"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
+      <c r="A162" s="33"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
+      <c r="A163" s="33"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
+      <c r="A164" s="33"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
+      <c r="A165" s="33"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
+      <c r="A166" s="33"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
+      <c r="A167" s="33"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="6"/>
+      <c r="A168" s="34"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
+      <c r="A169" s="35"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8"/>
+      <c r="A170" s="33"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8"/>
+      <c r="A171" s="33"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6"/>
+      <c r="A172" s="34"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7"/>
+      <c r="A173" s="35"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
+      <c r="A174" s="33"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
+      <c r="A175" s="33"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
+      <c r="A176" s="33"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
-    </row>
-    <row r="179" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
+      <c r="A177" s="33"/>
+    </row>
+    <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A179" s="36"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6"/>
+      <c r="A180" s="34"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
+      <c r="A181" s="35"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
+      <c r="A182" s="33"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
+      <c r="A183" s="33"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
+      <c r="A184" s="34"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+      <c r="A185" s="35"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
+      <c r="A186" s="33"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
+      <c r="A187" s="33"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
+      <c r="A188" s="33"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
+      <c r="A189" s="33"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8"/>
+      <c r="A190" s="33"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
+      <c r="A191" s="34"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
+      <c r="A192" s="35"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8"/>
+      <c r="A193" s="33"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
+      <c r="A194" s="33"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8"/>
+      <c r="A195" s="33"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8"/>
+      <c r="A196" s="33"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8"/>
+      <c r="A197" s="33"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8"/>
+      <c r="A198" s="33"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8"/>
+      <c r="A199" s="33"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
+      <c r="A200" s="34"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
+      <c r="A201" s="35"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
+      <c r="A202" s="33"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8"/>
+      <c r="A203" s="33"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
+      <c r="A204" s="33"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8"/>
+      <c r="A205" s="33"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
+      <c r="A206" s="34"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
+      <c r="A207" s="35"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8"/>
+      <c r="A208" s="33"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
+      <c r="A209" s="33"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
+      <c r="A210" s="33"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
+      <c r="A211" s="33"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
+      <c r="A212" s="33"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
+      <c r="A213" s="33"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
+      <c r="A214" s="33"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="8"/>
+      <c r="A215" s="33"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
+      <c r="A216" s="34"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="7"/>
+      <c r="A217" s="35"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="8"/>
+      <c r="A218" s="33"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
+      <c r="A219" s="33"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="8"/>
+      <c r="A220" s="33"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="8"/>
+      <c r="A221" s="33"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
+      <c r="A222" s="33"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
+      <c r="A223" s="33"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
+      <c r="A224" s="34"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="35"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="8"/>
-    </row>
-    <row r="228" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
+      <c r="A226" s="33"/>
+    </row>
+    <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A228" s="36"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6"/>
+      <c r="A229" s="34"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="7"/>
+      <c r="A230" s="35"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
+      <c r="A231" s="34"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="7"/>
+      <c r="A232" s="35"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="8"/>
+      <c r="A233" s="33"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="8"/>
+      <c r="A234" s="33"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="8"/>
+      <c r="A235" s="33"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="8"/>
+      <c r="A236" s="33"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="8"/>
+      <c r="A237" s="33"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8"/>
+      <c r="A238" s="33"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="6"/>
+      <c r="A239" s="34"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="7"/>
+      <c r="A240" s="35"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="8"/>
+      <c r="A241" s="33"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="8"/>
+      <c r="A242" s="33"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="8"/>
+      <c r="A243" s="33"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="8"/>
+      <c r="A244" s="33"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="6"/>
+      <c r="A245" s="34"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="7"/>
+      <c r="A246" s="35"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="8"/>
+      <c r="A247" s="33"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="8"/>
+      <c r="A248" s="33"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="8"/>
+      <c r="A249" s="33"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="8"/>
+      <c r="A250" s="33"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
+      <c r="A251" s="34"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="7"/>
+      <c r="A252" s="35"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="8"/>
+      <c r="A253" s="33"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="8"/>
+      <c r="A254" s="33"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="8"/>
+      <c r="A255" s="33"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="8"/>
+      <c r="A256" s="33"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="8"/>
+      <c r="A257" s="33"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="8"/>
+      <c r="A258" s="33"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="6"/>
+      <c r="A259" s="34"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="7"/>
+      <c r="A260" s="35"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="8"/>
+      <c r="A261" s="33"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="8"/>
+      <c r="A262" s="33"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
+      <c r="A263" s="34"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="7"/>
+      <c r="A264" s="35"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="8"/>
+      <c r="A265" s="33"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="8"/>
+      <c r="A266" s="33"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
+      <c r="A267" s="33"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="8"/>
+      <c r="A268" s="33"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="8"/>
-    </row>
-    <row r="271" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A271" s="5"/>
+      <c r="A269" s="33"/>
+    </row>
+    <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A271" s="36"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
+      <c r="A272" s="34"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="7"/>
+      <c r="A273" s="35"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
+      <c r="A274" s="33"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
+      <c r="A275" s="34"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="7"/>
+      <c r="A276" s="35"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="8"/>
+      <c r="A277" s="33"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="8"/>
+      <c r="A278" s="33"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="8"/>
+      <c r="A279" s="33"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="6"/>
+      <c r="A280" s="34"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="35"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
+      <c r="A282" s="33"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
+      <c r="A283" s="33"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
+      <c r="A284" s="33"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="8"/>
+      <c r="A285" s="33"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="6"/>
+      <c r="A286" s="34"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="7"/>
+      <c r="A287" s="35"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="8"/>
+      <c r="A288" s="33"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="8"/>
+      <c r="A289" s="33"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="8"/>
+      <c r="A290" s="33"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="6"/>
+      <c r="A291" s="34"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="7"/>
+      <c r="A292" s="35"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="8"/>
+      <c r="A293" s="33"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="8"/>
+      <c r="A294" s="33"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="8"/>
+      <c r="A295" s="33"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
+      <c r="A297" s="37"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
+      <c r="A298" s="34"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6"/>
+      <c r="A299" s="34"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
+      <c r="A300" s="34"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="6"/>
+      <c r="A301" s="34"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
+      <c r="A302" s="34"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6"/>
+      <c r="A303" s="34"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6"/>
+      <c r="A304" s="34"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="4"/>
+      <c r="A305" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13550,7 +13792,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13572,7 +13814,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13594,7 +13836,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13616,7 +13858,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13638,7 +13880,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13660,7 +13902,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13682,7 +13924,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13704,7 +13946,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13726,7 +13968,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13748,7 +13990,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13770,7 +14012,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13792,7 +14034,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13814,7 +14056,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13836,7 +14078,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13858,7 +14100,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13880,7 +14122,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13902,7 +14144,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13924,7 +14166,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13946,7 +14188,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13968,7 +14210,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>41</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -13990,7 +14232,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14012,7 +14254,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14034,7 +14276,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14056,7 +14298,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14078,7 +14320,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14100,7 +14342,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>50</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14122,7 +14364,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>51</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14144,7 +14386,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14166,7 +14408,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14188,7 +14430,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14210,7 +14452,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14232,7 +14474,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14254,7 +14496,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14276,7 +14518,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14298,7 +14540,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14320,7 +14562,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14342,7 +14584,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14364,7 +14606,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14386,7 +14628,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14408,7 +14650,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14430,7 +14672,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14452,7 +14694,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14474,7 +14716,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14496,7 +14738,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14518,7 +14760,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14540,7 +14782,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14562,7 +14804,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14584,7 +14826,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14606,7 +14848,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14628,7 +14870,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14650,7 +14892,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14672,7 +14914,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14694,7 +14936,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14716,7 +14958,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14738,7 +14980,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14760,7 +15002,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14782,7 +15024,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>42</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14804,7 +15046,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14826,7 +15068,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14848,7 +15090,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
@@ -14864,657 +15106,810 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807CD5C1-0F3D-4A7E-BEBA-DA72E30A75D0}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="41" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="22" customWidth="1"/>
+    <col min="5" max="6" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="22"/>
+    <col min="8" max="16" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="22"/>
+    <col min="18" max="18" width="18.140625" style="22" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.85" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:18" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H2" s="11"/>
-      <c r="I2" s="30" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+    </row>
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="C3" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="N3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="P3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" t="b">
+      <c r="B4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="22" t="str">
         <f>$A$4</f>
         <v>Employment</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="9" t="str" cm="1">
+      <c r="H4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="30" t="str" cm="1">
         <f t="array" ref="I4:I5">_xlfn._xlws.FILTER($B$4:$B$40,($E$4:$E$40=TRUE)*($F$4:$F$40=I$3),"")</f>
         <v>Monthly salary</v>
       </c>
-      <c r="J4" s="9" t="str" cm="1">
+      <c r="J4" s="30" t="str" cm="1">
         <f t="array" ref="J4">_xlfn._xlws.FILTER($B$4:$B$40,($E$4:$E$40=TRUE)*($F$4:$F$40=J$3),"")</f>
         <v/>
       </c>
-      <c r="K4" s="9" t="str" cm="1">
+      <c r="K4" s="30" t="str" cm="1">
         <f t="array" ref="K4">_xlfn._xlws.FILTER($B$4:$B$40,($E$4:$E$40=TRUE)*($F$4:$F$40=K$3),"")</f>
         <v/>
       </c>
-      <c r="L4" s="9" t="str" cm="1">
+      <c r="L4" s="30" t="str" cm="1">
         <f t="array" ref="L4">_xlfn._xlws.FILTER($B$4:$B$40,($E$4:$E$40=TRUE)*($F$4:$F$40=L$3),"")</f>
         <v/>
       </c>
-      <c r="M4" s="9" t="str" cm="1">
+      <c r="M4" s="30" t="str" cm="1">
         <f t="array" ref="M4">_xlfn._xlws.FILTER($B$4:$B$40,($E$4:$E$40=TRUE)*($F$4:$F$40=M$3),"")</f>
         <v/>
       </c>
-      <c r="N4" s="9" t="str" cm="1">
+      <c r="N4" s="30" t="str" cm="1">
         <f t="array" ref="N4">_xlfn._xlws.FILTER($B$4:$B$40,($E$4:$E$40=TRUE)*($F$4:$F$40=N$3),"")</f>
         <v/>
       </c>
-      <c r="O4" s="9" t="str" cm="1">
+      <c r="O4" s="30" t="str" cm="1">
         <f t="array" ref="O4">_xlfn._xlws.FILTER($B$4:$B$40,($E$4:$E$40=TRUE)*($F$4:$F$40=O$3),"")</f>
         <v/>
       </c>
-      <c r="P4" s="9" t="str" cm="1">
+      <c r="P4" s="30" t="str" cm="1">
         <f t="array" ref="P4">_xlfn._xlws.FILTER($B$4:$B$40,($E$4:$E$40=TRUE)*($F$4:$F$40=P$3),"")</f>
         <v/>
       </c>
-      <c r="R4" s="2" t="str" cm="1">
+      <c r="R4" s="26" t="str" cm="1">
         <f t="array" ref="R4:R6">_xlfn._xlws.FILTER($B$4:$B$63,($E$4:$E$63=TRUE),"")</f>
         <v>Monthly salary</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" t="b">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="22" t="str">
         <f t="shared" ref="F5:F10" si="0">$A$4</f>
         <v>Employment</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="9" t="str">
+      <c r="H5" s="32"/>
+      <c r="I5" s="30" t="str">
         <v>OT allowance</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="R5" s="9" t="str">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="R5" s="26" t="str">
         <v>OT allowance</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="9"/>
-      <c r="F6" t="str">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="F6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="R6" s="9" t="str">
+      <c r="H6" s="32"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="R6" s="26" t="str">
         <v>interest</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="9"/>
-      <c r="F7" t="str">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="F7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="9"/>
-      <c r="E8" t="b">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="9"/>
-      <c r="F9" t="str">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="F9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="9"/>
-      <c r="F10" t="str">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="F10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="F11" t="str">
+      <c r="A11" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="F11" s="22" t="str">
         <f>$A$11</f>
         <v>Part time</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="9"/>
-      <c r="F12" t="str">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="22" t="str">
         <f t="shared" ref="F12:F14" si="1">$A$11</f>
         <v>Part time</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="9"/>
-      <c r="F13" t="str">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Part time</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="9"/>
-      <c r="F14" t="str">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="F14" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Part time</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="F15" t="str">
+      <c r="A15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="F15" s="22" t="str">
         <f>$A$15</f>
         <v>Side hustles</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="9"/>
-      <c r="F16" t="str">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="22" t="str">
         <f t="shared" ref="F16:F18" si="2">$A$15</f>
         <v>Side hustles</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="9"/>
-      <c r="F17" t="str">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="F17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Side hustles</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="9"/>
-      <c r="F18" t="str">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Side hustles</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="F19" t="str">
+      <c r="A19" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="F19" s="22" t="str">
         <f>$A$19</f>
         <v>Investment return</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="9"/>
-      <c r="F20" t="str">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="F20" s="22" t="str">
         <f t="shared" ref="F20:F22" si="3">$A$19</f>
         <v>Investment return</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="9"/>
-      <c r="F21" t="str">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="F21" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Investment return</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="9"/>
-      <c r="F22" t="str">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="F22" s="22" t="str">
         <f t="shared" si="3"/>
         <v>Investment return</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="R22" s="26"/>
     </row>
     <row r="23" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="F23" t="str">
+      <c r="A23" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="F23" s="22" t="str">
         <f>$A$23</f>
         <v>Rental income</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="9"/>
-      <c r="F24" t="str">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="F24" s="22" t="str">
         <f t="shared" ref="F24:F25" si="4">$A$23</f>
         <v>Rental income</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="9"/>
-      <c r="F25" t="str">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="F25" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Rental income</v>
       </c>
-      <c r="R25" s="9"/>
+      <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" t="b">
+      <c r="A26" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="22" t="str">
         <f>$A$26</f>
         <v>Bank</v>
       </c>
-      <c r="R26" s="9"/>
+      <c r="R26" s="26"/>
     </row>
     <row r="27" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="9"/>
-      <c r="F27" t="str">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="F27" s="22" t="str">
         <f t="shared" ref="F27:F28" si="5">$A$26</f>
         <v>Bank</v>
       </c>
-      <c r="R27" s="9"/>
+      <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="9"/>
-      <c r="F28" t="str">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="22" t="str">
         <f t="shared" si="5"/>
         <v>Bank</v>
       </c>
-      <c r="R28" s="9"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="F29" t="str">
+      <c r="A29" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="F29" s="22" t="str">
         <f>$A$29</f>
         <v>Other</v>
       </c>
-      <c r="R29" s="9"/>
+      <c r="R29" s="26"/>
     </row>
     <row r="30" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="9"/>
-      <c r="F30" t="str">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="F30" s="22" t="str">
         <f t="shared" ref="F30:F33" si="6">$A$29</f>
         <v>Other</v>
       </c>
-      <c r="R30" s="9"/>
+      <c r="R30" s="26"/>
     </row>
     <row r="31" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="9"/>
-      <c r="F31" t="str">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="F31" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other</v>
       </c>
-      <c r="R31" s="9"/>
+      <c r="R31" s="26"/>
     </row>
     <row r="32" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="9"/>
-      <c r="F32" t="str">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="F32" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other</v>
       </c>
-      <c r="R32" s="9"/>
+      <c r="R32" s="26"/>
     </row>
     <row r="33" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="9"/>
-      <c r="F33" t="str">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="F33" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Other</v>
       </c>
-      <c r="R33" s="9"/>
+      <c r="R33" s="26"/>
     </row>
     <row r="34" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="F34" t="str">
+      <c r="A34" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="F34" s="22" t="str">
         <f>$A$34</f>
         <v>New Category</v>
       </c>
-      <c r="R34" s="9"/>
+      <c r="R34" s="26"/>
     </row>
     <row r="35" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="9"/>
-      <c r="F35" t="str">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="F35" s="22" t="str">
         <f t="shared" ref="F35:F40" si="7">$A$34</f>
         <v>New Category</v>
       </c>
-      <c r="R35" s="9"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="9"/>
-      <c r="F36" t="str">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="F36" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="9"/>
-      <c r="F37" t="str">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="F37" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
-      <c r="R37" s="9"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="9"/>
-      <c r="F38" t="str">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="F38" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
-      <c r="R38" s="9"/>
+      <c r="R38" s="26"/>
     </row>
     <row r="39" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="9"/>
-      <c r="F39" t="str">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="F39" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
-      <c r="R39" s="9"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="9"/>
-      <c r="F40" t="str">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="F40" s="22" t="str">
         <f t="shared" si="7"/>
         <v>New Category</v>
       </c>
-      <c r="R40" s="9"/>
+      <c r="R40" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I2:P2"/>
     <mergeCell ref="H4:H24"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15534,8 +15929,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15556,8 +15951,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15578,8 +15973,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15600,8 +15995,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15622,8 +16017,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15644,8 +16039,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15666,8 +16061,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15688,8 +16083,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15710,8 +16105,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15732,8 +16127,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15754,8 +16149,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15776,8 +16171,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15798,8 +16193,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15820,8 +16215,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15842,8 +16237,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15864,8 +16259,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15886,8 +16281,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15908,8 +16303,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15930,8 +16325,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15952,8 +16347,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15974,8 +16369,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -15996,8 +16391,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16018,8 +16413,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16040,8 +16435,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16062,8 +16457,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16084,8 +16479,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16106,8 +16501,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16128,8 +16523,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16150,8 +16545,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16172,8 +16567,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16194,8 +16589,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16216,8 +16611,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16238,8 +16633,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16260,8 +16655,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16282,8 +16677,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16304,8 +16699,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>39</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16326,8 +16721,8 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>352425</xdr:rowOff>
                   </to>
@@ -16342,215 +16737,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BC4F42-78C8-408D-AB3B-2A723CC00046}">
-  <dimension ref="A1:J18"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="16" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="10.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="22" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="46.140625" style="22" customWidth="1"/>
+    <col min="8" max="14" width="10.7109375" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32">
+    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39">
         <v>2025</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="15">
-        <f>SUMIFS(Transactions[Amount], Transactions[Income], "&lt;&gt;", Transactions[Date], "&gt;=" &amp; DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), Transactions[Date], "&lt;=" &amp; EOMONTH(DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), 0))</f>
-        <v>99</v>
-      </c>
+      <c r="D2" s="41">
+        <f>SUMIFS(Transactions[Amount], Transactions[Income], "&lt;&gt;", Transactions[Date], "&gt;=" &amp; DATE($A$2, MONTH(DATEVALUE(TRIM($B$2)&amp;" 1")), 1), Transactions[Date], "&lt;=" &amp; EOMONTH(DATE($A$2, MONTH(DATEVALUE(TRIM($B$2)&amp;" 1")), 1), 0))</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="15">
-        <f>SUMIFS(Transactions[Amount], Transactions[Expenses], "&lt;&gt;", Transactions[Date], "&gt;=" &amp; DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), Transactions[Date], "&lt;=" &amp; EOMONTH(DATE($A$1, MONTH(DATEVALUE(TRIM($B$1)&amp;" 1")), 1), 0))</f>
-        <v>93</v>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="41">
+        <f>SUMIFS(Transactions[Amount], Transactions[Expenses], "&lt;&gt;", Transactions[Date], "&gt;=" &amp; DATE($A$2, MONTH(DATEVALUE(TRIM($B$2)&amp;" 1")), 1), Transactions[Date], "&lt;=" &amp; EOMONTH(DATE($A$2, MONTH(DATEVALUE(TRIM($B$2)&amp;" 1")), 1), 0))</f>
+        <v>80</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="41">
         <f>$D$2-$D$3</f>
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="44">
         <f>IFERROR($D$3/$D$2, 0)</f>
-        <v>0.93939393939393945</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="45">
+        <f ca="1">TODAY()</f>
+        <v>45861</v>
+      </c>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="45">
+        <v>45849</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="14">
-        <f ca="1">TODAY()</f>
-        <v>45860</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="E9" s="47"/>
+      <c r="F9" s="48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="45">
+        <v>45849</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="45">
+        <v>45814</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="49">
+        <v>45814</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="48">
+        <v>100</v>
+      </c>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="45">
+        <v>45869</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="45"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="45"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="45"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="45"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="45"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="45"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="G8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="14">
-        <v>45849</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="25">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="14">
-        <v>45849</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="14">
-        <v>45814</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="21">
-        <v>45814</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="25">
-        <v>198</v>
-      </c>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="14">
-        <v>45869</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="25">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="25"/>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="A1:A5"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="F9:F18">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="F9:F19">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$D9&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$E9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16611,19 +17030,19 @@
           <x14:formula1>
             <xm:f>'Select of income'!$R$4:$R$40</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D18</xm:sqref>
+          <xm:sqref>D9:D19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28458869-566A-40F9-AEB0-F7A86405ABFB}">
           <x14:formula1>
             <xm:f>'Selection of expenses'!$R$4:$R$40</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E18</xm:sqref>
+          <xm:sqref>E9:E19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B359DD22-A910-4EC1-8492-3C7FC2DA486F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF4D92B1-AF93-4C83-949B-F8CDB320C9A2}">
           <x14:formula1>
-            <xm:f>Dashboard!#REF!</xm:f>
+            <xm:f>Dashboard!$B$2:$M$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1</xm:sqref>
+          <xm:sqref>B2:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16631,394 +17050,399 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A4C3E1-4865-4C31-9CD3-150CAF75F45D}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N23"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="14" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26" style="6" customWidth="1"/>
+    <col min="2" max="14" width="9.7109375" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="L2" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="M2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>115</v>
+      <c r="N2" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 1, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 2, 1))</f>
         <v>0</v>
       </c>
-      <c r="C3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025,6, 1))</f>
+      <c r="F3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year,6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>150</v>
       </c>
-      <c r="H3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025,8, 1))</f>
-        <v>99</v>
-      </c>
-      <c r="I3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="H3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year,8, 1))</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="J3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="K3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="L3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="M3" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="4">
         <f>SUM(B3:M3)</f>
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+      <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 1, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 2, 1))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
-        <v>198</v>
-      </c>
-      <c r="H4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
-        <v>93</v>
-      </c>
-      <c r="I4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="G4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
+        <v>80</v>
+      </c>
+      <c r="I4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+      <c r="J4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+      <c r="K4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+      <c r="L4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M4" s="16">
-        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+      <c r="M4" s="1">
+        <f>SUMIFS(Transactions[Amount],Transactions[Expenses],"&lt;&gt;",Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="4">
         <f>SUM(B4:M4)</f>
-        <v>291</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1">
         <f t="shared" ref="B5:M5" si="0">B3-B4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>-48</v>
-      </c>
-      <c r="H5" s="16">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I5" s="16">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="4">
         <f>SUM(B5:M5)</f>
-        <v>-42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="1">
         <f>SUM($B$5:B5)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="1">
         <f>SUM($B$5:C5)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="1">
         <f>SUM($B$5:D5)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="1">
         <f>SUM($B$5:E5)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="1">
         <f>SUM($B$5:F5)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="1">
         <f>SUM($B$5:G5)</f>
-        <v>-48</v>
-      </c>
-      <c r="H6" s="16">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
         <f>SUM($B$5:H5)</f>
-        <v>-42</v>
-      </c>
-      <c r="I6" s="16">
+        <v>70</v>
+      </c>
+      <c r="I6" s="1">
         <f>SUM($B$5:I5)</f>
-        <v>-42</v>
-      </c>
-      <c r="J6" s="16">
+        <v>70</v>
+      </c>
+      <c r="J6" s="1">
         <f>SUM($B$5:J5)</f>
-        <v>-42</v>
-      </c>
-      <c r="K6" s="16">
+        <v>70</v>
+      </c>
+      <c r="K6" s="1">
         <f>SUM($B$5:K5)</f>
-        <v>-42</v>
-      </c>
-      <c r="L6" s="16">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1">
         <f>SUM($B$5:L5)</f>
-        <v>-42</v>
-      </c>
-      <c r="M6" s="16">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1">
         <f>SUM($B$5:M5)</f>
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="L7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="M7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>147</v>
-      </c>
+      <c r="N7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="str" cm="1">
-        <f t="array" ref="A8:A17">_xlfn.LET(
+        <f t="array" ref="A8:A18">_xlfn.LET(
     _xlpm.CombinedList, _xlfn.VSTACK('Select of income'!$R$4:$R$40, 'Selection of expenses'!$R$4:$R$40),
     _xlfn._xlws.FILTER(_xlpm.CombinedList, _xlpm.CombinedList&lt;&gt;"")
 )</f>
         <v>Monthly salary</v>
       </c>
-      <c r="B8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 1, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 2, 1))</f>
+      <c r="B8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 1, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 2, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 1, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 2, 1))</f>
         <v>0</v>
       </c>
-      <c r="C8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="24">
-        <f>SUMIFS(Transactions[Remark],Transactions[Expenses],"="&amp;$A8,Transactions[Income],"&gt;="&amp;DATE(2025,6, 1),Transactions[Income],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Remark],Transactions[Amount],"="&amp;$A8,Transactions[Income],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Income],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G8" s="57">
+        <f>SUMIFS(Transactions[Remark],Transactions[Expenses],"="&amp;$A8,Transactions[Income],"&gt;="&amp;DATE(Year,6, 1),Transactions[Income],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Remark],Transactions[Amount],"="&amp;$A8,Transactions[Income],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Income],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+      <c r="H8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="I8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="J8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="K8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="L8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="M8" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A8,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="5">
         <f>SUM($B8:$M8)</f>
         <v>0</v>
       </c>
@@ -17027,520 +17451,695 @@
       <c r="A9" t="str">
         <v>OT allowance</v>
       </c>
-      <c r="B9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A9,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+      <c r="B9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A9,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
         <v>0</v>
       </c>
-      <c r="C9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>150</v>
       </c>
-      <c r="H9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
-        <v>99</v>
-      </c>
-      <c r="I9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="H9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
+        <v>100</v>
+      </c>
+      <c r="I9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="J9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="K9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="L9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M9" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="M9" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A9,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="5">
         <f t="shared" ref="N9:N17" si="1">SUM($B9:$M9)</f>
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>interest</v>
       </c>
-      <c r="B10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A10,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+      <c r="B10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A10,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
         <v>0</v>
       </c>
-      <c r="C10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+      <c r="H10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="I10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="J10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="K10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="L10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M10" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="M10" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A10,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <v>Clothing &amp; Appreals</v>
-      </c>
-      <c r="B11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A11,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>Clothing &amp; Apparels</v>
+      </c>
+      <c r="B11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A11,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
         <v>0</v>
       </c>
-      <c r="C11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
-        <v>30</v>
-      </c>
-      <c r="I11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="H11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
         <v>0</v>
       </c>
-      <c r="J11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="I11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="J11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="K11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="L11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="26">
+      <c r="M11" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A11,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>jewelry</v>
       </c>
-      <c r="B12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A12,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+      <c r="B12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A12,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
         <v>0</v>
       </c>
-      <c r="C12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+      <c r="H12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="I12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="J12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="K12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="L12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="M12" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A12,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <v>Books &amp; Supplies</v>
-      </c>
-      <c r="B13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A13,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+        <v>massages</v>
+      </c>
+      <c r="B13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A13,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
         <v>0</v>
       </c>
-      <c r="C13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
-        <v>63</v>
-      </c>
-      <c r="I13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="H13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
         <v>0</v>
       </c>
-      <c r="J13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="I13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="J13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="L13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="K13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="L13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="26">
+      <c r="M13" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A13,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
+        <v>Books &amp; Supplies</v>
+      </c>
+      <c r="B14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A14,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
+        <v>50</v>
+      </c>
+      <c r="I14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
         <v>Healthcare (Family Members)</v>
       </c>
-      <c r="B14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A14,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+      <c r="B15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A15,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+      <c r="H15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="I15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="J15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="K15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="L15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M14" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A14,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="M15" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <v>Mutal Fund</v>
-      </c>
-      <c r="B15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A15,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <v>Mutual Fund</v>
+      </c>
+      <c r="B16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A16,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+      <c r="H16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="I16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="J16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="K16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="L16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A15,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="M16" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
         <v>Donations</v>
       </c>
-      <c r="B16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A16,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
+      <c r="B17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A17,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-Year",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-Year")</f>
         <v>0</v>
       </c>
-      <c r="C16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
+      <c r="C17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 2, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 3, 1))</f>
         <v>0</v>
       </c>
-      <c r="D16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
+      <c r="D17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 3, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 4, 1))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
+      <c r="E17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 4, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 5, 1))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
+      <c r="F17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year,5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 5, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 6, 1))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 7, 1))</f>
+      <c r="G17" s="57">
+        <f>SUMIFS(Transactions[Remark],Transactions[Expenses],"="&amp;$A17,Transactions[Income],"&gt;="&amp;DATE(Year,6, 1),Transactions[Income],"&lt;"&amp;DATE(Year, 7, 1))+SUMIFS(Transactions[Remark],Transactions[Amount],"="&amp;$A17,Transactions[Income],"&gt;="&amp;DATE(Year, 6, 1),Transactions[Income],"&lt;"&amp;DATE(Year, 7, 1))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
+      <c r="H17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 7, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 8, 1))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
+      <c r="I17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 8, 1),Transactions[Date],"&lt;"&amp;DATE(Year,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year,8, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 9, 1))</f>
         <v>0</v>
       </c>
-      <c r="J16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
+      <c r="J17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 9, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 10, 1))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
+      <c r="K17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 10, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 11, 1))</f>
         <v>0</v>
       </c>
-      <c r="L16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
+      <c r="L17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 11, 1),Transactions[Date],"&lt;"&amp;DATE(Year, 12, 1))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A16,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
+      <c r="M17" s="57">
+        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(Year, 12, 1),Transactions[Date],"&lt;"&amp;DATE(Year+1, 1, 1))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
         <v>Other 8</v>
       </c>
-      <c r="B17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;A17,Transactions[Date],"&gt;=1-"&amp;B$2&amp;"-2025",Transactions[Date],"&lt;1-"&amp;C$2&amp;"-2025")</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 2, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 3, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 3, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 4, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 4, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 5, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025,5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 5, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 6, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="24">
-        <f>SUMIFS(Transactions[Remark],Transactions[Expenses],"="&amp;$A17,Transactions[Income],"&gt;="&amp;DATE(2025,6, 1),Transactions[Income],"&lt;"&amp;DATE(2025, 7, 1))+SUMIFS(Transactions[Remark],Transactions[Amount],"="&amp;$A17,Transactions[Income],"&gt;="&amp;DATE(2025, 6, 1),Transactions[Income],"&lt;"&amp;DATE(2025, 7, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 7, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 8, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 8, 1),Transactions[Date],"&lt;"&amp;DATE(2025,9, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025,8, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 9, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 9, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 10, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 10, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 11, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 11, 1),Transactions[Date],"&lt;"&amp;DATE(2025, 12, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="24">
-        <f>SUMIFS(Transactions[Amount],Transactions[Income],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))+SUMIFS(Transactions[Amount],Transactions[Expenses],"="&amp;$A17,Transactions[Date],"&gt;="&amp;DATE(2025, 12, 1),Transactions[Date],"&lt;"&amp;DATE(2026, 1, 1))</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="19"/>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" s="3"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B5:M5">
     <cfRule type="iconSet" priority="1">
       <iconSet>
@@ -17555,7 +18154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274C9DD4-A882-4F7A-84D6-90ECC819E212}">
   <dimension ref="A2:A3"/>
   <sheetViews>
@@ -17570,7 +18169,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
